--- a/Report 3 ngày/Titkok/Ecombest_003.xlsx
+++ b/Report 3 ngày/Titkok/Ecombest_003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="305">
   <si>
     <t>Campaign name</t>
   </si>
@@ -43,33 +43,33 @@
     <t>Currency</t>
   </si>
   <si>
+    <t>SparkAds_A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom, Dog Dad - Personalized Heart Shaped Acrylic Plaque_TiktokAds_HPTR106NAH2899WP_161223</t>
+  </si>
+  <si>
     <t>ProductSale_First Mom Now Grandma - Gift For Mothers, Grandmas, Aunties - Personalized 2-Layered Wooden Plaque With Stand_ProductSales_PSTA361ELE2901WP_040424</t>
   </si>
   <si>
-    <t>SparkAds_A Bond That Can't Be Broken - Gift For Dog Lovers, Dog Mom, Dog Dad - Personalized Heart Shaped Acrylic Plaque_TiktokAds_HPTR106NAH2899WP_161223</t>
-  </si>
-  <si>
     <t>ProductSale_Custom Photo Calendar The Day Our Journey Began - Gift For Couples - Personalized Clear Phone Case_ProductSales_CETT958CIN2175WP_150324</t>
   </si>
   <si>
+    <t>ProductSale_Mama Bear - Gift For Mothers &amp; Grandmas - Personalized Custom Shaped Wooden Puzzle_ProductSales_WZAH638ELE3092WP_040424</t>
+  </si>
+  <si>
+    <t>ProductSale_Love Elephant Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle_ProductSales_WZAH611ELE2987WP_040424</t>
+  </si>
+  <si>
+    <t>ProductSale_Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Cup, Personalized Tumbler_ProductSales_TUTR203HAL2126WP_040424</t>
+  </si>
+  <si>
+    <t>ProductSale_Calendar Custom Photo The Day You Became My Mommy - Gift For Mother, Father - Personalized Aluminum Keychain_ProductSales_LDKK776CIN2126WP_040424</t>
+  </si>
+  <si>
+    <t>ProductSale_Mama Bear Floral Style - Birthday, Loving Gift For Mom, Mother, Grandma, Grandmother - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_ProductSales_EMNN423HEL954WP_040424</t>
+  </si>
+  <si>
     <t>ProductSale_Custom Photo Drive Safe Daddy - Birthday, Loving Gift For Dad, Father, Papa, Grandpa - Personalized Acrylic Car Hanger_ProductSales_AHTR146HAL1978WP_040424</t>
   </si>
   <si>
-    <t>ProductSale_Love Elephant Family - Gift For Mother, Father, Family - Personalized Custom Shaped Wooden Puzzle_ProductSales_WZAH611ELE2987WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSale_Mama Bear - Gift For Mothers &amp; Grandmas - Personalized Custom Shaped Wooden Puzzle_ProductSales_WZAH638ELE3092WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSale_Hand In Hand, I Will Always Protect You - Gift For Mom, Grandma - 3D Inflated Effect Printed Cup, Personalized Tumbler_ProductSales_TUTR203HAL2126WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSale_Calendar Custom Photo The Day You Became My Mommy - Gift For Mother, Father - Personalized Aluminum Keychain_ProductSales_LDKK776CIN2126WP_040424</t>
-  </si>
-  <si>
-    <t>ProductSale_Mama Bear Floral Style - Birthday, Loving Gift For Mom, Mother, Grandma, Grandmother - 3D Inflated Effect Printed Mug, Personalized White Edge-to-Edge Mug_ProductSales_EMNN423HEL954WP_040424</t>
-  </si>
-  <si>
     <t>ProductSale_Proud Mother Of A Few Kids - Funny Gift For Mom, Mother, Grandma - Personalized T Shirt_ProductSales_TSAK987NAH3105WP_290324</t>
   </si>
   <si>
@@ -901,40 +901,31 @@
     <t>-</t>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
     <t>21</t>
   </si>
   <si>
+    <t>339</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
     <t>11</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>144</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>184</t>
   </si>
   <si>
     <t>USD</t>
@@ -1338,10 +1329,10 @@
         <v>292</v>
       </c>
       <c r="C2">
-        <v>135.5</v>
+        <v>122.76</v>
       </c>
       <c r="D2">
-        <v>2.13</v>
+        <v>1.82</v>
       </c>
       <c r="E2" t="s">
         <v>294</v>
@@ -1353,10 +1344,10 @@
         <v>295</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1367,10 +1358,10 @@
         <v>292</v>
       </c>
       <c r="C3">
-        <v>140.61</v>
+        <v>1204.75</v>
       </c>
       <c r="D3">
-        <v>1.46</v>
+        <v>1.79</v>
       </c>
       <c r="E3" t="s">
         <v>294</v>
@@ -1382,10 +1373,10 @@
         <v>296</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I3" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1396,10 +1387,10 @@
         <v>292</v>
       </c>
       <c r="C4">
-        <v>119.18</v>
+        <v>317.75</v>
       </c>
       <c r="D4">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="E4" t="s">
         <v>294</v>
@@ -1411,10 +1402,10 @@
         <v>297</v>
       </c>
       <c r="H4" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1422,13 +1413,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C5">
-        <v>76.41</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>294</v>
@@ -1440,10 +1431,10 @@
         <v>298</v>
       </c>
       <c r="H5" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="I5" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1451,13 +1442,13 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C6">
-        <v>92.5</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>294</v>
@@ -1466,13 +1457,13 @@
         <v>294</v>
       </c>
       <c r="G6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H6" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="I6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1483,7 +1474,7 @@
         <v>293</v>
       </c>
       <c r="C7">
-        <v>71.31999999999999</v>
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1495,13 +1486,13 @@
         <v>294</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="I7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1512,7 +1503,7 @@
         <v>293</v>
       </c>
       <c r="C8">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1524,13 +1515,13 @@
         <v>294</v>
       </c>
       <c r="G8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1541,7 +1532,7 @@
         <v>293</v>
       </c>
       <c r="C9">
-        <v>69.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1553,13 +1544,13 @@
         <v>294</v>
       </c>
       <c r="G9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1570,7 +1561,7 @@
         <v>293</v>
       </c>
       <c r="C10">
-        <v>57.46</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1582,13 +1573,13 @@
         <v>294</v>
       </c>
       <c r="G10" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1599,7 +1590,7 @@
         <v>292</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1611,13 +1602,13 @@
         <v>294</v>
       </c>
       <c r="G11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1640,13 +1631,13 @@
         <v>294</v>
       </c>
       <c r="G12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1669,13 +1660,13 @@
         <v>294</v>
       </c>
       <c r="G13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H13" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I13" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1698,13 +1689,13 @@
         <v>294</v>
       </c>
       <c r="G14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H14" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I14" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1727,13 +1718,13 @@
         <v>294</v>
       </c>
       <c r="G15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H15" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I15" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1756,13 +1747,13 @@
         <v>294</v>
       </c>
       <c r="G16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H16" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I16" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1785,13 +1776,13 @@
         <v>294</v>
       </c>
       <c r="G17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H17" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I17" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1814,13 +1805,13 @@
         <v>294</v>
       </c>
       <c r="G18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1843,13 +1834,13 @@
         <v>294</v>
       </c>
       <c r="G19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H19" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1872,13 +1863,13 @@
         <v>294</v>
       </c>
       <c r="G20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H20" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1901,13 +1892,13 @@
         <v>294</v>
       </c>
       <c r="G21" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H21" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I21" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1930,13 +1921,13 @@
         <v>294</v>
       </c>
       <c r="G22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H22" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I22" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1959,13 +1950,13 @@
         <v>294</v>
       </c>
       <c r="G23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H23" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I23" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1988,13 +1979,13 @@
         <v>294</v>
       </c>
       <c r="G24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H24" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -2017,13 +2008,13 @@
         <v>294</v>
       </c>
       <c r="G25" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H25" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I25" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -2046,13 +2037,13 @@
         <v>294</v>
       </c>
       <c r="G26" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H26" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -2075,13 +2066,13 @@
         <v>294</v>
       </c>
       <c r="G27" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H27" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I27" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -2104,13 +2095,13 @@
         <v>294</v>
       </c>
       <c r="G28" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H28" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I28" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -2133,13 +2124,13 @@
         <v>294</v>
       </c>
       <c r="G29" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H29" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I29" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -2162,13 +2153,13 @@
         <v>294</v>
       </c>
       <c r="G30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H30" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -2191,13 +2182,13 @@
         <v>294</v>
       </c>
       <c r="G31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2220,13 +2211,13 @@
         <v>294</v>
       </c>
       <c r="G32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I32" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2249,13 +2240,13 @@
         <v>294</v>
       </c>
       <c r="G33" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H33" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I33" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2278,13 +2269,13 @@
         <v>294</v>
       </c>
       <c r="G34" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H34" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I34" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2307,13 +2298,13 @@
         <v>294</v>
       </c>
       <c r="G35" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H35" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I35" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2336,13 +2327,13 @@
         <v>294</v>
       </c>
       <c r="G36" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H36" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I36" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2365,13 +2356,13 @@
         <v>294</v>
       </c>
       <c r="G37" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H37" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2394,13 +2385,13 @@
         <v>294</v>
       </c>
       <c r="G38" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H38" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I38" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2423,13 +2414,13 @@
         <v>294</v>
       </c>
       <c r="G39" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H39" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I39" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2452,13 +2443,13 @@
         <v>294</v>
       </c>
       <c r="G40" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H40" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I40" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2481,13 +2472,13 @@
         <v>294</v>
       </c>
       <c r="G41" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H41" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2510,13 +2501,13 @@
         <v>294</v>
       </c>
       <c r="G42" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H42" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I42" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2539,13 +2530,13 @@
         <v>294</v>
       </c>
       <c r="G43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H43" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2568,13 +2559,13 @@
         <v>294</v>
       </c>
       <c r="G44" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H44" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I44" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2597,13 +2588,13 @@
         <v>294</v>
       </c>
       <c r="G45" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H45" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I45" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2626,13 +2617,13 @@
         <v>294</v>
       </c>
       <c r="G46" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H46" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I46" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2655,13 +2646,13 @@
         <v>294</v>
       </c>
       <c r="G47" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H47" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I47" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2684,13 +2675,13 @@
         <v>294</v>
       </c>
       <c r="G48" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H48" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I48" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2713,13 +2704,13 @@
         <v>294</v>
       </c>
       <c r="G49" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H49" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I49" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2742,13 +2733,13 @@
         <v>294</v>
       </c>
       <c r="G50" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H50" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I50" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2771,13 +2762,13 @@
         <v>294</v>
       </c>
       <c r="G51" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H51" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I51" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2800,13 +2791,13 @@
         <v>294</v>
       </c>
       <c r="G52" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H52" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I52" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2829,13 +2820,13 @@
         <v>294</v>
       </c>
       <c r="G53" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H53" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I53" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2858,13 +2849,13 @@
         <v>294</v>
       </c>
       <c r="G54" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H54" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I54" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2887,13 +2878,13 @@
         <v>294</v>
       </c>
       <c r="G55" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H55" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I55" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2916,13 +2907,13 @@
         <v>294</v>
       </c>
       <c r="G56" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H56" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I56" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2945,13 +2936,13 @@
         <v>294</v>
       </c>
       <c r="G57" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H57" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I57" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2974,13 +2965,13 @@
         <v>294</v>
       </c>
       <c r="G58" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H58" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I58" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -3003,13 +2994,13 @@
         <v>294</v>
       </c>
       <c r="G59" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H59" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I59" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -3032,13 +3023,13 @@
         <v>294</v>
       </c>
       <c r="G60" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H60" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I60" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -3061,13 +3052,13 @@
         <v>294</v>
       </c>
       <c r="G61" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H61" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I61" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -3090,13 +3081,13 @@
         <v>294</v>
       </c>
       <c r="G62" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H62" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I62" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -3119,13 +3110,13 @@
         <v>294</v>
       </c>
       <c r="G63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H63" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I63" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -3148,13 +3139,13 @@
         <v>294</v>
       </c>
       <c r="G64" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H64" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I64" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -3177,13 +3168,13 @@
         <v>294</v>
       </c>
       <c r="G65" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H65" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I65" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3206,13 +3197,13 @@
         <v>294</v>
       </c>
       <c r="G66" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H66" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I66" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3235,13 +3226,13 @@
         <v>294</v>
       </c>
       <c r="G67" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H67" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I67" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3264,13 +3255,13 @@
         <v>294</v>
       </c>
       <c r="G68" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H68" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I68" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3293,13 +3284,13 @@
         <v>294</v>
       </c>
       <c r="G69" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H69" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I69" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3322,13 +3313,13 @@
         <v>294</v>
       </c>
       <c r="G70" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H70" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I70" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3351,13 +3342,13 @@
         <v>294</v>
       </c>
       <c r="G71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H71" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I71" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3380,13 +3371,13 @@
         <v>294</v>
       </c>
       <c r="G72" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H72" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I72" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3409,13 +3400,13 @@
         <v>294</v>
       </c>
       <c r="G73" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H73" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I73" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3438,13 +3429,13 @@
         <v>294</v>
       </c>
       <c r="G74" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H74" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I74" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3467,13 +3458,13 @@
         <v>294</v>
       </c>
       <c r="G75" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H75" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I75" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3496,13 +3487,13 @@
         <v>294</v>
       </c>
       <c r="G76" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H76" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I76" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3525,13 +3516,13 @@
         <v>294</v>
       </c>
       <c r="G77" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H77" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I77" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3554,13 +3545,13 @@
         <v>294</v>
       </c>
       <c r="G78" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H78" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I78" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3583,13 +3574,13 @@
         <v>294</v>
       </c>
       <c r="G79" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H79" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I79" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3612,13 +3603,13 @@
         <v>294</v>
       </c>
       <c r="G80" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H80" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I80" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3641,13 +3632,13 @@
         <v>294</v>
       </c>
       <c r="G81" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H81" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I81" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3670,13 +3661,13 @@
         <v>294</v>
       </c>
       <c r="G82" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H82" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I82" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3699,13 +3690,13 @@
         <v>294</v>
       </c>
       <c r="G83" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H83" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I83" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3728,13 +3719,13 @@
         <v>294</v>
       </c>
       <c r="G84" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H84" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I84" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3757,13 +3748,13 @@
         <v>294</v>
       </c>
       <c r="G85" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H85" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I85" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3786,13 +3777,13 @@
         <v>294</v>
       </c>
       <c r="G86" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H86" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I86" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3815,13 +3806,13 @@
         <v>294</v>
       </c>
       <c r="G87" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H87" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I87" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3844,13 +3835,13 @@
         <v>294</v>
       </c>
       <c r="G88" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H88" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I88" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3873,13 +3864,13 @@
         <v>294</v>
       </c>
       <c r="G89" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H89" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I89" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3902,13 +3893,13 @@
         <v>294</v>
       </c>
       <c r="G90" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H90" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I90" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3931,13 +3922,13 @@
         <v>294</v>
       </c>
       <c r="G91" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H91" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I91" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3960,13 +3951,13 @@
         <v>294</v>
       </c>
       <c r="G92" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H92" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I92" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3989,13 +3980,13 @@
         <v>294</v>
       </c>
       <c r="G93" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H93" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I93" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -4018,13 +4009,13 @@
         <v>294</v>
       </c>
       <c r="G94" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H94" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I94" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -4047,13 +4038,13 @@
         <v>294</v>
       </c>
       <c r="G95" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H95" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I95" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -4076,13 +4067,13 @@
         <v>294</v>
       </c>
       <c r="G96" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H96" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I96" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -4105,13 +4096,13 @@
         <v>294</v>
       </c>
       <c r="G97" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H97" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I97" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -4134,13 +4125,13 @@
         <v>294</v>
       </c>
       <c r="G98" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H98" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I98" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -4163,13 +4154,13 @@
         <v>294</v>
       </c>
       <c r="G99" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H99" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I99" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -4192,13 +4183,13 @@
         <v>294</v>
       </c>
       <c r="G100" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H100" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I100" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4221,13 +4212,13 @@
         <v>294</v>
       </c>
       <c r="G101" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H101" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I101" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4250,13 +4241,13 @@
         <v>294</v>
       </c>
       <c r="G102" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H102" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I102" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4279,13 +4270,13 @@
         <v>294</v>
       </c>
       <c r="G103" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H103" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I103" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4308,13 +4299,13 @@
         <v>294</v>
       </c>
       <c r="G104" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H104" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I104" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4337,13 +4328,13 @@
         <v>294</v>
       </c>
       <c r="G105" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H105" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I105" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4366,13 +4357,13 @@
         <v>294</v>
       </c>
       <c r="G106" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H106" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I106" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4395,13 +4386,13 @@
         <v>294</v>
       </c>
       <c r="G107" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H107" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I107" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4424,13 +4415,13 @@
         <v>294</v>
       </c>
       <c r="G108" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H108" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I108" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4453,13 +4444,13 @@
         <v>294</v>
       </c>
       <c r="G109" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H109" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I109" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4482,13 +4473,13 @@
         <v>294</v>
       </c>
       <c r="G110" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H110" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I110" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4511,13 +4502,13 @@
         <v>294</v>
       </c>
       <c r="G111" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H111" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I111" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4540,13 +4531,13 @@
         <v>294</v>
       </c>
       <c r="G112" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H112" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I112" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4569,13 +4560,13 @@
         <v>294</v>
       </c>
       <c r="G113" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H113" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I113" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4598,13 +4589,13 @@
         <v>294</v>
       </c>
       <c r="G114" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H114" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I114" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4627,13 +4618,13 @@
         <v>294</v>
       </c>
       <c r="G115" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H115" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I115" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4656,13 +4647,13 @@
         <v>294</v>
       </c>
       <c r="G116" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H116" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I116" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -4685,13 +4676,13 @@
         <v>294</v>
       </c>
       <c r="G117" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H117" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I117" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -4714,13 +4705,13 @@
         <v>294</v>
       </c>
       <c r="G118" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H118" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I118" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -4743,13 +4734,13 @@
         <v>294</v>
       </c>
       <c r="G119" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H119" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I119" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -4772,13 +4763,13 @@
         <v>294</v>
       </c>
       <c r="G120" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H120" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I120" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -4801,13 +4792,13 @@
         <v>294</v>
       </c>
       <c r="G121" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H121" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I121" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -4830,13 +4821,13 @@
         <v>294</v>
       </c>
       <c r="G122" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H122" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I122" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -4859,13 +4850,13 @@
         <v>294</v>
       </c>
       <c r="G123" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H123" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I123" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -4888,13 +4879,13 @@
         <v>294</v>
       </c>
       <c r="G124" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H124" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I124" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -4917,13 +4908,13 @@
         <v>294</v>
       </c>
       <c r="G125" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H125" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I125" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -4946,13 +4937,13 @@
         <v>294</v>
       </c>
       <c r="G126" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H126" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I126" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -4975,13 +4966,13 @@
         <v>294</v>
       </c>
       <c r="G127" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H127" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I127" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -5004,13 +4995,13 @@
         <v>294</v>
       </c>
       <c r="G128" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H128" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I128" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -5033,13 +5024,13 @@
         <v>294</v>
       </c>
       <c r="G129" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H129" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I129" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -5062,13 +5053,13 @@
         <v>294</v>
       </c>
       <c r="G130" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H130" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I130" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -5091,13 +5082,13 @@
         <v>294</v>
       </c>
       <c r="G131" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H131" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I131" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -5120,13 +5111,13 @@
         <v>294</v>
       </c>
       <c r="G132" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H132" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I132" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -5149,13 +5140,13 @@
         <v>294</v>
       </c>
       <c r="G133" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H133" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I133" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -5178,13 +5169,13 @@
         <v>294</v>
       </c>
       <c r="G134" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H134" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I134" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -5207,13 +5198,13 @@
         <v>294</v>
       </c>
       <c r="G135" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H135" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I135" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -5236,13 +5227,13 @@
         <v>294</v>
       </c>
       <c r="G136" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H136" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I136" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -5265,13 +5256,13 @@
         <v>294</v>
       </c>
       <c r="G137" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H137" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I137" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -5294,13 +5285,13 @@
         <v>294</v>
       </c>
       <c r="G138" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H138" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I138" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -5323,13 +5314,13 @@
         <v>294</v>
       </c>
       <c r="G139" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H139" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I139" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -5352,13 +5343,13 @@
         <v>294</v>
       </c>
       <c r="G140" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H140" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I140" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -5381,13 +5372,13 @@
         <v>294</v>
       </c>
       <c r="G141" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H141" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I141" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -5410,13 +5401,13 @@
         <v>294</v>
       </c>
       <c r="G142" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H142" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I142" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -5439,13 +5430,13 @@
         <v>294</v>
       </c>
       <c r="G143" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H143" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I143" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -5468,13 +5459,13 @@
         <v>294</v>
       </c>
       <c r="G144" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H144" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I144" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -5497,13 +5488,13 @@
         <v>294</v>
       </c>
       <c r="G145" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H145" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I145" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -5526,13 +5517,13 @@
         <v>294</v>
       </c>
       <c r="G146" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H146" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I146" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -5555,13 +5546,13 @@
         <v>294</v>
       </c>
       <c r="G147" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H147" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I147" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -5584,13 +5575,13 @@
         <v>294</v>
       </c>
       <c r="G148" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H148" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I148" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -5613,13 +5604,13 @@
         <v>294</v>
       </c>
       <c r="G149" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H149" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I149" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -5642,13 +5633,13 @@
         <v>294</v>
       </c>
       <c r="G150" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H150" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I150" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -5671,13 +5662,13 @@
         <v>294</v>
       </c>
       <c r="G151" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H151" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I151" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -5700,13 +5691,13 @@
         <v>294</v>
       </c>
       <c r="G152" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H152" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I152" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -5729,13 +5720,13 @@
         <v>294</v>
       </c>
       <c r="G153" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H153" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I153" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -5758,13 +5749,13 @@
         <v>294</v>
       </c>
       <c r="G154" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H154" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I154" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -5787,13 +5778,13 @@
         <v>294</v>
       </c>
       <c r="G155" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H155" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I155" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -5816,13 +5807,13 @@
         <v>294</v>
       </c>
       <c r="G156" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H156" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -5845,13 +5836,13 @@
         <v>294</v>
       </c>
       <c r="G157" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H157" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I157" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -5874,13 +5865,13 @@
         <v>294</v>
       </c>
       <c r="G158" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H158" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -5903,13 +5894,13 @@
         <v>294</v>
       </c>
       <c r="G159" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H159" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I159" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -5932,13 +5923,13 @@
         <v>294</v>
       </c>
       <c r="G160" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H160" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I160" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -5961,13 +5952,13 @@
         <v>294</v>
       </c>
       <c r="G161" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H161" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I161" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -5990,13 +5981,13 @@
         <v>294</v>
       </c>
       <c r="G162" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H162" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I162" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -6019,13 +6010,13 @@
         <v>294</v>
       </c>
       <c r="G163" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H163" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I163" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -6048,13 +6039,13 @@
         <v>294</v>
       </c>
       <c r="G164" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H164" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I164" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -6077,13 +6068,13 @@
         <v>294</v>
       </c>
       <c r="G165" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H165" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I165" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -6106,13 +6097,13 @@
         <v>294</v>
       </c>
       <c r="G166" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H166" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I166" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -6135,13 +6126,13 @@
         <v>294</v>
       </c>
       <c r="G167" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H167" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I167" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -6164,13 +6155,13 @@
         <v>294</v>
       </c>
       <c r="G168" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H168" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I168" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -6193,13 +6184,13 @@
         <v>294</v>
       </c>
       <c r="G169" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H169" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I169" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -6222,13 +6213,13 @@
         <v>294</v>
       </c>
       <c r="G170" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H170" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I170" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -6251,13 +6242,13 @@
         <v>294</v>
       </c>
       <c r="G171" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H171" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I171" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -6280,13 +6271,13 @@
         <v>294</v>
       </c>
       <c r="G172" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H172" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I172" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -6309,13 +6300,13 @@
         <v>294</v>
       </c>
       <c r="G173" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H173" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I173" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -6338,13 +6329,13 @@
         <v>294</v>
       </c>
       <c r="G174" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H174" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I174" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -6367,13 +6358,13 @@
         <v>294</v>
       </c>
       <c r="G175" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H175" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I175" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -6396,13 +6387,13 @@
         <v>294</v>
       </c>
       <c r="G176" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H176" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I176" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -6425,13 +6416,13 @@
         <v>294</v>
       </c>
       <c r="G177" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H177" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I177" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -6454,13 +6445,13 @@
         <v>294</v>
       </c>
       <c r="G178" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H178" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I178" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -6483,13 +6474,13 @@
         <v>294</v>
       </c>
       <c r="G179" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H179" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I179" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -6512,13 +6503,13 @@
         <v>294</v>
       </c>
       <c r="G180" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H180" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I180" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -6541,13 +6532,13 @@
         <v>294</v>
       </c>
       <c r="G181" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H181" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I181" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -6570,13 +6561,13 @@
         <v>294</v>
       </c>
       <c r="G182" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H182" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I182" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -6599,13 +6590,13 @@
         <v>294</v>
       </c>
       <c r="G183" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H183" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I183" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -6628,13 +6619,13 @@
         <v>294</v>
       </c>
       <c r="G184" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H184" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I184" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -6657,13 +6648,13 @@
         <v>294</v>
       </c>
       <c r="G185" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H185" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I185" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -6686,13 +6677,13 @@
         <v>294</v>
       </c>
       <c r="G186" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H186" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I186" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -6715,13 +6706,13 @@
         <v>294</v>
       </c>
       <c r="G187" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H187" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I187" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -6744,13 +6735,13 @@
         <v>294</v>
       </c>
       <c r="G188" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H188" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I188" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -6773,13 +6764,13 @@
         <v>294</v>
       </c>
       <c r="G189" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H189" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I189" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -6802,13 +6793,13 @@
         <v>294</v>
       </c>
       <c r="G190" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H190" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I190" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -6831,13 +6822,13 @@
         <v>294</v>
       </c>
       <c r="G191" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H191" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I191" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -6860,13 +6851,13 @@
         <v>294</v>
       </c>
       <c r="G192" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H192" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I192" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -6889,13 +6880,13 @@
         <v>294</v>
       </c>
       <c r="G193" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H193" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I193" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -6918,13 +6909,13 @@
         <v>294</v>
       </c>
       <c r="G194" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H194" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I194" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -6947,13 +6938,13 @@
         <v>294</v>
       </c>
       <c r="G195" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H195" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I195" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -6976,13 +6967,13 @@
         <v>294</v>
       </c>
       <c r="G196" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H196" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I196" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -7005,13 +6996,13 @@
         <v>294</v>
       </c>
       <c r="G197" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H197" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I197" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -7034,13 +7025,13 @@
         <v>294</v>
       </c>
       <c r="G198" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H198" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I198" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -7063,13 +7054,13 @@
         <v>294</v>
       </c>
       <c r="G199" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H199" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I199" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -7092,13 +7083,13 @@
         <v>294</v>
       </c>
       <c r="G200" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H200" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I200" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -7121,13 +7112,13 @@
         <v>294</v>
       </c>
       <c r="G201" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H201" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I201" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -7150,13 +7141,13 @@
         <v>294</v>
       </c>
       <c r="G202" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H202" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I202" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -7179,13 +7170,13 @@
         <v>294</v>
       </c>
       <c r="G203" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H203" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I203" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -7208,13 +7199,13 @@
         <v>294</v>
       </c>
       <c r="G204" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H204" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I204" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -7237,13 +7228,13 @@
         <v>294</v>
       </c>
       <c r="G205" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H205" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I205" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -7266,13 +7257,13 @@
         <v>294</v>
       </c>
       <c r="G206" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H206" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I206" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -7295,13 +7286,13 @@
         <v>294</v>
       </c>
       <c r="G207" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H207" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I207" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -7324,13 +7315,13 @@
         <v>294</v>
       </c>
       <c r="G208" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H208" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I208" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -7353,13 +7344,13 @@
         <v>294</v>
       </c>
       <c r="G209" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H209" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I209" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -7382,13 +7373,13 @@
         <v>294</v>
       </c>
       <c r="G210" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H210" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I210" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -7411,13 +7402,13 @@
         <v>294</v>
       </c>
       <c r="G211" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H211" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I211" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -7440,13 +7431,13 @@
         <v>294</v>
       </c>
       <c r="G212" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H212" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I212" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -7469,13 +7460,13 @@
         <v>294</v>
       </c>
       <c r="G213" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H213" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I213" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -7498,13 +7489,13 @@
         <v>294</v>
       </c>
       <c r="G214" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H214" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I214" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -7527,13 +7518,13 @@
         <v>294</v>
       </c>
       <c r="G215" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H215" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I215" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -7556,13 +7547,13 @@
         <v>294</v>
       </c>
       <c r="G216" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H216" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I216" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -7585,13 +7576,13 @@
         <v>294</v>
       </c>
       <c r="G217" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H217" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I217" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -7614,13 +7605,13 @@
         <v>294</v>
       </c>
       <c r="G218" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H218" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I218" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -7643,13 +7634,13 @@
         <v>294</v>
       </c>
       <c r="G219" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H219" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I219" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -7672,13 +7663,13 @@
         <v>294</v>
       </c>
       <c r="G220" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H220" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I220" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -7701,13 +7692,13 @@
         <v>294</v>
       </c>
       <c r="G221" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H221" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I221" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -7730,13 +7721,13 @@
         <v>294</v>
       </c>
       <c r="G222" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H222" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I222" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -7759,13 +7750,13 @@
         <v>294</v>
       </c>
       <c r="G223" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H223" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I223" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -7788,13 +7779,13 @@
         <v>294</v>
       </c>
       <c r="G224" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H224" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I224" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -7817,13 +7808,13 @@
         <v>294</v>
       </c>
       <c r="G225" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H225" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I225" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -7846,13 +7837,13 @@
         <v>294</v>
       </c>
       <c r="G226" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H226" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I226" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -7875,13 +7866,13 @@
         <v>294</v>
       </c>
       <c r="G227" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H227" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I227" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -7904,13 +7895,13 @@
         <v>294</v>
       </c>
       <c r="G228" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H228" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I228" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -7933,13 +7924,13 @@
         <v>294</v>
       </c>
       <c r="G229" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H229" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I229" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -7962,13 +7953,13 @@
         <v>294</v>
       </c>
       <c r="G230" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H230" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I230" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -7991,13 +7982,13 @@
         <v>294</v>
       </c>
       <c r="G231" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H231" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I231" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -8020,13 +8011,13 @@
         <v>294</v>
       </c>
       <c r="G232" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H232" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I232" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -8049,13 +8040,13 @@
         <v>294</v>
       </c>
       <c r="G233" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H233" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I233" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -8078,13 +8069,13 @@
         <v>294</v>
       </c>
       <c r="G234" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H234" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I234" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -8107,13 +8098,13 @@
         <v>294</v>
       </c>
       <c r="G235" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H235" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I235" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -8136,13 +8127,13 @@
         <v>294</v>
       </c>
       <c r="G236" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H236" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I236" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -8165,13 +8156,13 @@
         <v>294</v>
       </c>
       <c r="G237" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H237" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I237" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -8194,13 +8185,13 @@
         <v>294</v>
       </c>
       <c r="G238" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H238" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I238" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -8223,13 +8214,13 @@
         <v>294</v>
       </c>
       <c r="G239" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H239" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I239" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -8252,13 +8243,13 @@
         <v>294</v>
       </c>
       <c r="G240" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H240" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I240" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -8281,13 +8272,13 @@
         <v>294</v>
       </c>
       <c r="G241" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H241" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I241" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -8310,13 +8301,13 @@
         <v>294</v>
       </c>
       <c r="G242" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H242" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I242" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -8339,13 +8330,13 @@
         <v>294</v>
       </c>
       <c r="G243" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H243" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I243" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -8368,13 +8359,13 @@
         <v>294</v>
       </c>
       <c r="G244" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H244" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I244" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -8397,13 +8388,13 @@
         <v>294</v>
       </c>
       <c r="G245" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H245" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I245" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -8426,13 +8417,13 @@
         <v>294</v>
       </c>
       <c r="G246" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H246" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I246" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -8455,13 +8446,13 @@
         <v>294</v>
       </c>
       <c r="G247" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H247" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I247" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -8484,13 +8475,13 @@
         <v>294</v>
       </c>
       <c r="G248" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H248" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I248" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -8513,13 +8504,13 @@
         <v>294</v>
       </c>
       <c r="G249" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H249" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I249" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -8542,13 +8533,13 @@
         <v>294</v>
       </c>
       <c r="G250" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H250" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I250" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -8571,13 +8562,13 @@
         <v>294</v>
       </c>
       <c r="G251" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H251" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I251" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -8600,13 +8591,13 @@
         <v>294</v>
       </c>
       <c r="G252" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H252" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I252" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -8629,13 +8620,13 @@
         <v>294</v>
       </c>
       <c r="G253" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H253" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I253" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -8658,13 +8649,13 @@
         <v>294</v>
       </c>
       <c r="G254" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H254" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I254" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -8687,13 +8678,13 @@
         <v>294</v>
       </c>
       <c r="G255" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H255" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I255" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -8716,13 +8707,13 @@
         <v>294</v>
       </c>
       <c r="G256" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H256" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I256" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -8745,13 +8736,13 @@
         <v>294</v>
       </c>
       <c r="G257" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H257" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I257" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -8774,13 +8765,13 @@
         <v>294</v>
       </c>
       <c r="G258" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H258" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I258" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -8803,13 +8794,13 @@
         <v>294</v>
       </c>
       <c r="G259" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H259" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I259" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -8832,13 +8823,13 @@
         <v>294</v>
       </c>
       <c r="G260" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H260" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I260" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -8861,13 +8852,13 @@
         <v>294</v>
       </c>
       <c r="G261" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H261" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I261" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -8890,13 +8881,13 @@
         <v>294</v>
       </c>
       <c r="G262" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H262" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I262" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -8919,13 +8910,13 @@
         <v>294</v>
       </c>
       <c r="G263" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H263" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I263" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -8948,13 +8939,13 @@
         <v>294</v>
       </c>
       <c r="G264" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H264" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I264" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -8977,13 +8968,13 @@
         <v>294</v>
       </c>
       <c r="G265" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H265" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I265" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -9006,13 +8997,13 @@
         <v>294</v>
       </c>
       <c r="G266" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H266" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I266" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -9035,13 +9026,13 @@
         <v>294</v>
       </c>
       <c r="G267" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H267" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I267" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -9064,13 +9055,13 @@
         <v>294</v>
       </c>
       <c r="G268" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H268" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I268" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -9093,13 +9084,13 @@
         <v>294</v>
       </c>
       <c r="G269" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H269" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I269" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -9122,13 +9113,13 @@
         <v>294</v>
       </c>
       <c r="G270" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H270" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I270" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -9151,13 +9142,13 @@
         <v>294</v>
       </c>
       <c r="G271" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H271" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I271" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -9180,13 +9171,13 @@
         <v>294</v>
       </c>
       <c r="G272" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H272" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I272" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -9209,13 +9200,13 @@
         <v>294</v>
       </c>
       <c r="G273" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H273" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I273" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -9238,13 +9229,13 @@
         <v>294</v>
       </c>
       <c r="G274" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H274" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I274" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -9267,13 +9258,13 @@
         <v>294</v>
       </c>
       <c r="G275" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H275" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I275" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -9296,13 +9287,13 @@
         <v>294</v>
       </c>
       <c r="G276" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H276" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I276" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -9325,13 +9316,13 @@
         <v>294</v>
       </c>
       <c r="G277" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H277" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I277" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -9354,13 +9345,13 @@
         <v>294</v>
       </c>
       <c r="G278" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H278" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I278" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -9383,13 +9374,13 @@
         <v>294</v>
       </c>
       <c r="G279" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H279" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I279" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -9412,13 +9403,13 @@
         <v>294</v>
       </c>
       <c r="G280" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H280" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I280" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -9441,13 +9432,13 @@
         <v>294</v>
       </c>
       <c r="G281" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H281" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I281" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -9470,13 +9461,13 @@
         <v>294</v>
       </c>
       <c r="G282" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H282" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I282" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -9499,13 +9490,13 @@
         <v>294</v>
       </c>
       <c r="G283" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H283" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="I283" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -9516,10 +9507,10 @@
         <v>294</v>
       </c>
       <c r="C284">
-        <v>837.72</v>
+        <v>1645.54</v>
       </c>
       <c r="D284">
-        <v>0.86</v>
+        <v>1.65</v>
       </c>
       <c r="E284" t="s">
         <v>294</v>
@@ -9528,13 +9519,13 @@
         <v>294</v>
       </c>
       <c r="G284" t="s">
+        <v>299</v>
+      </c>
+      <c r="H284" t="s">
         <v>303</v>
       </c>
-      <c r="H284" t="s">
-        <v>295</v>
-      </c>
       <c r="I284" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
